--- a/Progress Reports/Jake_Progress_Report.xlsx
+++ b/Progress Reports/Jake_Progress_Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,27 @@
   </si>
   <si>
     <t>Writing SQL to populate Sales_items, Suppliers, Users, Transactions tables</t>
+  </si>
+  <si>
+    <t>Learned how to incorporate the SyncFusion Libs to our web application.</t>
+  </si>
+  <si>
+    <t>Learned jsp and how to encorporate JDBC with it.</t>
+  </si>
+  <si>
+    <t>Made create_user page for Demo test.</t>
+  </si>
+  <si>
+    <t>Creating pages/DBHelper functions</t>
+  </si>
+  <si>
+    <t>Updating previously created pages</t>
+  </si>
+  <si>
+    <t>Creating pages/DBHelper functions/Fixing bugs</t>
+  </si>
+  <si>
+    <t>Presentation slides</t>
   </si>
 </sst>
 </file>
@@ -266,8 +287,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,7 +652,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,44 +762,92 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="13">
+        <v>42825</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="13">
+        <v>42829</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="13">
+        <v>42829</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="13">
+        <v>42849</v>
+      </c>
+      <c r="B13" s="7">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="13">
+        <v>42850</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="13">
+        <v>42851</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="13">
+        <v>42851</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="13">
+        <v>42852</v>
+      </c>
+      <c r="B17" s="7">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
